--- a/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03535679764888468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04396936117342391</v>
+        <v>0.0439693611734239</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.101444080938957</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05229828946175642</v>
+        <v>0.05240047044769634</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02868850909387006</v>
+        <v>0.02835526511177787</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02404019641986353</v>
+        <v>0.0240025487413638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03103914628365437</v>
+        <v>0.03107697053004039</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08470016422029214</v>
+        <v>0.08613380631133512</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1053860382002261</v>
+        <v>0.1089667129270104</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07383118269447903</v>
+        <v>0.07655163666590196</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1086484410593924</v>
+        <v>0.1083726982031557</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07559803919829988</v>
+        <v>0.07551858460992837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07753697353832975</v>
+        <v>0.07750078260077276</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05805897511362512</v>
+        <v>0.0557611163544478</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07940923063734455</v>
+        <v>0.0799068565414833</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08322143134903616</v>
+        <v>0.08253785667889431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05534214508257201</v>
+        <v>0.05416412946373715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04926375423476251</v>
+        <v>0.04946811836095221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05947306510144875</v>
+        <v>0.0628174134668773</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1179988691907609</v>
+        <v>0.1207772920815744</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1443463874106011</v>
+        <v>0.1460880004801429</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1143308758123882</v>
+        <v>0.1148502557500757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1419267779102407</v>
+        <v>0.1437307309000342</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09769063668080503</v>
+        <v>0.09776425930873592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1017027180983312</v>
+        <v>0.1022940023729414</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08119927671356209</v>
+        <v>0.08144320453376518</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.105410791789212</v>
+        <v>0.1038120462636949</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01349908561619112</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02625557308454245</v>
+        <v>0.02625557308454246</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007375432806549024</v>
+        <v>0.00763978475801223</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008458301460282413</v>
+        <v>0.008158650811738522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005015432589917937</v>
+        <v>0.004927586140998749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01276076253331289</v>
+        <v>0.01282157708353212</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01108207903228304</v>
+        <v>0.01138612091044026</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01221190854253205</v>
+        <v>0.01206111953219518</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01311752027184773</v>
+        <v>0.01343875546921973</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0293189104466087</v>
+        <v>0.02889253037405064</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01068268677683343</v>
+        <v>0.01031640307226212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01171259138096449</v>
+        <v>0.01156750438088934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01014099455328278</v>
+        <v>0.01006638596369502</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02228431439437242</v>
+        <v>0.02214122816963263</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01853816006890396</v>
+        <v>0.01847616785892782</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0191952879848491</v>
+        <v>0.01969484029424117</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01414526091146489</v>
+        <v>0.01354362167975534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0237072662318488</v>
+        <v>0.02315077456576814</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02464360444812308</v>
+        <v>0.02498357044421984</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0257759838194085</v>
+        <v>0.02521154688249283</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02549422731813502</v>
+        <v>0.02639629221321065</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04230108210731262</v>
+        <v>0.04251286259733127</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01964588993297578</v>
+        <v>0.019031151574603</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0197266736293864</v>
+        <v>0.0201213499283212</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01815936741857455</v>
+        <v>0.0176048432994089</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0307385477707484</v>
+        <v>0.03057601153971983</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004343065136104842</v>
+        <v>0.002975154137541031</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005874234362746479</v>
+        <v>0.005931951484041972</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0122028864211793</v>
+        <v>0.01169408380373714</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005233209233568276</v>
+        <v>0.005711356603740649</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001954120491144534</v>
+        <v>0.00207596475469329</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02176942482482241</v>
+        <v>0.02265560028313384</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009804412435566068</v>
+        <v>0.00978704097207145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007625057076903527</v>
+        <v>0.007668257656017525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0009801556713817511</v>
+        <v>0.000983295199758435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01176439733474891</v>
+        <v>0.01218504373370401</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02798045737834967</v>
+        <v>0.02776067635418788</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03441185485580298</v>
+        <v>0.03866583606110021</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.006441573029854261</v>
+        <v>0.007495203001862188</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04214796122621207</v>
+        <v>0.0439258663173147</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02956743760593624</v>
+        <v>0.02953825823191163</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01811113690180796</v>
+        <v>0.01800148540390513</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04559346560922195</v>
+        <v>0.04686645066436738</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02759220234732041</v>
+        <v>0.02772664813943225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02566548246707492</v>
+        <v>0.02563775260043506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.009536101192836851</v>
+        <v>0.009536017224793492</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02489072199378869</v>
+        <v>0.02446803647937765</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.03809569919477881</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05419057790967746</v>
+        <v>0.05419057790967747</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04009548868701666</v>
@@ -1101,7 +1101,7 @@
         <v>0.02587766052245359</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03695113354576528</v>
+        <v>0.03695113354576527</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02378032746097833</v>
+        <v>0.02380779310962127</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01606945136986813</v>
+        <v>0.01616669866481696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009522999607385013</v>
+        <v>0.009579825228228471</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01468294565656967</v>
+        <v>0.01462152545784664</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0435888668247593</v>
+        <v>0.04386643182925015</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05104765335547164</v>
+        <v>0.05049585780346497</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03205778853460484</v>
+        <v>0.0313883421957725</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04815755143811091</v>
+        <v>0.04853257977832817</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03571860583408898</v>
+        <v>0.03532084317272669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03494925549351065</v>
+        <v>0.0347927384450313</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02225242211456724</v>
+        <v>0.02212554077720115</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03369395390675234</v>
+        <v>0.03348938232259471</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03540438034759337</v>
+        <v>0.0353963372602435</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0263958800169121</v>
+        <v>0.02665170975954164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.017387397853333</v>
+        <v>0.01754171579128233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02369872645141028</v>
+        <v>0.0233708555887015</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05941075619114513</v>
+        <v>0.059006248536433</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06573815634519506</v>
+        <v>0.06634597640418076</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04474924850652642</v>
+        <v>0.04484855194125048</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06055404307969986</v>
+        <v>0.0614843466080669</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04523692295307235</v>
+        <v>0.04522529726698722</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04478856430520271</v>
+        <v>0.04487697629671208</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03020123189483906</v>
+        <v>0.03014646007703439</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04110109553149802</v>
+        <v>0.04057135603890161</v>
       </c>
     </row>
     <row r="16">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>53957</v>
+        <v>54063</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27881</v>
+        <v>27557</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18135</v>
+        <v>18106</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17886</v>
+        <v>17908</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>111390</v>
+        <v>113276</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>140327</v>
+        <v>145095</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>73437</v>
+        <v>76143</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>89068</v>
+        <v>88842</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>177416</v>
+        <v>177230</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>178598</v>
+        <v>178514</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>101546</v>
+        <v>97527</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>110857</v>
+        <v>111552</v>
       </c>
     </row>
     <row r="7">
@@ -1503,40 +1503,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>85861</v>
+        <v>85156</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53784</v>
+        <v>52639</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37162</v>
+        <v>37316</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34271</v>
+        <v>36198</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>155182</v>
+        <v>158836</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>192205</v>
+        <v>194524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>113720</v>
+        <v>114237</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>116349</v>
+        <v>117828</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>229264</v>
+        <v>229437</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>234261</v>
+        <v>235623</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>142018</v>
+        <v>142445</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>147156</v>
+        <v>144924</v>
       </c>
     </row>
     <row r="8">
@@ -1639,40 +1639,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12482</v>
+        <v>12930</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16578</v>
+        <v>15991</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10414</v>
+        <v>10232</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28464</v>
+        <v>28599</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17595</v>
+        <v>18077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21393</v>
+        <v>21129</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26082</v>
+        <v>26720</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>63643</v>
+        <v>62717</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35040</v>
+        <v>33838</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43476</v>
+        <v>42937</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>41220</v>
+        <v>40917</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>98079</v>
+        <v>97450</v>
       </c>
     </row>
     <row r="11">
@@ -1683,40 +1683,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31374</v>
+        <v>31269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37623</v>
+        <v>38602</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29371</v>
+        <v>28122</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>52881</v>
+        <v>51639</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39126</v>
+        <v>39666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45156</v>
+        <v>44167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50690</v>
+        <v>52484</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91823</v>
+        <v>92283</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>64440</v>
+        <v>62423</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>73223</v>
+        <v>74688</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>73812</v>
+        <v>71558</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>135289</v>
+        <v>134573</v>
       </c>
     </row>
     <row r="12">
@@ -1819,38 +1819,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2395</v>
+        <v>1641</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2822</v>
+        <v>2849</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5814</v>
+        <v>5571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2395</v>
+        <v>2614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1073</v>
+        <v>1140</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15979</v>
+        <v>16629</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>10077</v>
+        <v>10059</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7152</v>
+        <v>7193</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17007</v>
+        <v>17615</v>
       </c>
     </row>
     <row r="15">
@@ -1861,38 +1861,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15429</v>
+        <v>15307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16529</v>
+        <v>18572</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4584</v>
+        <v>5333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20080</v>
+        <v>20927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13532</v>
+        <v>13518</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9946</v>
+        <v>9885</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33466</v>
+        <v>34400</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28360</v>
+        <v>28498</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24074</v>
+        <v>24048</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>10452</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35982</v>
+        <v>35371</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>77893</v>
+        <v>77983</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54832</v>
+        <v>55164</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>32165</v>
+        <v>32357</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51660</v>
+        <v>51444</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>147295</v>
+        <v>148233</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>180763</v>
+        <v>178809</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>113231</v>
+        <v>110867</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>179363</v>
+        <v>180759</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>237697</v>
+        <v>235050</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>243011</v>
+        <v>241922</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>153758</v>
+        <v>152881</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>244042</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>115968</v>
+        <v>115942</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90068</v>
+        <v>90941</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58728</v>
+        <v>59249</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83381</v>
+        <v>82228</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>200761</v>
+        <v>199394</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>232782</v>
+        <v>234935</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>158059</v>
+        <v>158410</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>225533</v>
+        <v>228998</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>301039</v>
+        <v>300962</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>311426</v>
+        <v>312041</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>208682</v>
+        <v>208304</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>297691</v>
+        <v>293854</v>
       </c>
     </row>
     <row r="20">
